--- a/Bugs from Phase 2.xlsx
+++ b/Bugs from Phase 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Number</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>If you login as a player other than the player whose turn it is or the player that immediately finished their turn and rejoin a game, chat will not receive their messages.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>You can buy dev cards even after there are none left</t>
   </si>
 </sst>
 </file>
@@ -134,10 +140,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,196 +425,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="76.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="76.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>325</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>324</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>322</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>317</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>316</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>315</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>314</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>312</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>311</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>310</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>289</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>287</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>284</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>283</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>196</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>194</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>193</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>191</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>188</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>186</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>185</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Bugs from Phase 2.xlsx
+++ b/Bugs from Phase 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Number</t>
   </si>
@@ -98,10 +98,25 @@
     <t>If you login as a player other than the player whose turn it is or the player that immediately finished their turn and rejoin a game, chat will not receive their messages.</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>You can buy dev cards even after there are none left</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Ask Tas</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Justin</t>
   </si>
 </sst>
 </file>
@@ -427,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +471,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -464,6 +482,9 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -472,6 +493,9 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -480,6 +504,9 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -488,6 +515,9 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -496,6 +526,9 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -504,6 +537,9 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -512,6 +548,9 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -520,6 +559,9 @@
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -528,6 +570,9 @@
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -536,6 +581,9 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -544,6 +592,9 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -552,6 +603,9 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -561,7 +615,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -571,61 +625,85 @@
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>193</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>191</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>188</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>186</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>185</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>-1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Bugs from Phase 2.xlsx
+++ b/Bugs from Phase 2.xlsx
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">

--- a/Bugs from Phase 2.xlsx
+++ b/Bugs from Phase 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Number</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Grant</t>
-  </si>
-  <si>
-    <t>Steve</t>
   </si>
   <si>
     <t>Justin</t>
@@ -443,7 +440,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -571,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -626,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -637,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -703,7 +700,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Bugs from Phase 2.xlsx
+++ b/Bugs from Phase 2.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Documents\CS 340\cs340-catan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -110,32 +114,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +133,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -155,84 +141,318 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="76.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="76.85546875" style="2"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -243,8 +463,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>325</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -254,8 +474,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>324</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -265,8 +485,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>322</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -276,8 +496,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>317</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -287,8 +507,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>316</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -298,8 +518,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>315</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -309,8 +529,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>314</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -320,8 +540,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>312</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -331,8 +551,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>311</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -342,8 +562,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -353,8 +573,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>289</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -364,19 +584,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>287</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>284</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -386,8 +606,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>283</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -397,8 +617,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>196</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -408,8 +628,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>194</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -419,8 +639,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>193</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -430,8 +650,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>191</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -441,41 +661,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>188</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>186</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>185</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>-1</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -486,12 +706,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Bugs from Phase 2.xlsx
+++ b/Bugs from Phase 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Number</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>After a seven was rolled and during the discarding phase, the player who rolled 7 got stuck in the discarding state and froze the game after being allowed and placing the robber on a hex where no settlements existed and being allowed to rob from a player. this also froze chat for the player who rolled the seven and the player who was robbed.</t>
-  </si>
-  <si>
-    <t>Grant</t>
   </si>
   <si>
     <t>I would make sure i'm accurate about this, but rejected trades appear in the color of the player who rejected the trade, the demo shows it with the color of the player who sent the trade.</t>
@@ -440,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -534,7 +531,7 @@
         <v>314</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -545,7 +542,7 @@
         <v>312</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -556,7 +553,7 @@
         <v>311</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
@@ -567,7 +564,7 @@
         <v>310</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -578,7 +575,7 @@
         <v>289</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
@@ -589,7 +586,7 @@
         <v>287</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -600,7 +597,7 @@
         <v>284</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -611,7 +608,7 @@
         <v>283</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -622,10 +619,10 @@
         <v>196</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -633,7 +630,7 @@
         <v>194</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -644,7 +641,7 @@
         <v>193</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -655,7 +652,7 @@
         <v>191</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -666,7 +663,7 @@
         <v>188</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
@@ -677,7 +674,7 @@
         <v>186</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
@@ -688,7 +685,7 @@
         <v>185</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
@@ -699,7 +696,7 @@
         <v>-1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
